--- a/F23P1-M010-Group9.xlsx
+++ b/F23P1-M010-Group9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/crfloren_syr_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0942D1-DE3C-4FAB-9739-5A840872953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77144AE6-EB53-45B0-9F15-5DD27728B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56F44539-7065-42CD-9C6B-A4A9649F9920}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Char</t>
   </si>
@@ -98,6 +98,108 @@
     <t>.</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -146,108 +248,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
@@ -258,30 +258,6 @@
   </si>
   <si>
     <t>be</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>qu</t>
-  </si>
-  <si>
-    <t>'t</t>
-  </si>
-  <si>
-    <t>an</t>
   </si>
 </sst>
 </file>
@@ -653,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79723EF-AB1F-4912-A89A-413D8F177230}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -787,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>DEC2BIN(C11,5)</f>
         <v>01001</v>
       </c>
       <c r="C11">
@@ -866,8 +842,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="A18" s="2">
+        <v>0</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>DEC2BIN(64,7)</f>
@@ -878,8 +854,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="2">
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>1000001</v>
@@ -889,8 +865,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="2">
+        <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>1000010</v>
@@ -900,8 +876,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="2">
+        <v>3</v>
       </c>
       <c r="B21" s="2">
         <v>1000011</v>
@@ -911,8 +887,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>24</v>
+      <c r="A22" s="2">
+        <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>1000100</v>
@@ -922,8 +898,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>25</v>
+      <c r="A23" s="2">
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>1000101</v>
@@ -933,8 +909,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="A24" s="2">
+        <v>6</v>
       </c>
       <c r="B24" s="2">
         <v>1000110</v>
@@ -944,8 +920,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="A25" s="2">
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>1000111</v>
@@ -955,8 +931,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26" s="2">
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>DEC2BIN(72,7)</f>
@@ -967,8 +943,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>29</v>
+      <c r="A27" s="2">
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>DEC2BIN(73,7)</f>
@@ -980,11 +956,11 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>DEC2BIN(C31,7)</f>
-        <v>1001101</v>
+        <f>DEC2BIN(74,7)</f>
+        <v>1001010</v>
       </c>
       <c r="C28">
         <v>74</v>
@@ -992,10 +968,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>DEC2BIN(C29,7)</f>
+        <f t="shared" ref="B29:B60" si="2">DEC2BIN(C29,7)</f>
         <v>1001011</v>
       </c>
       <c r="C29">
@@ -1004,10 +980,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>DEC2BIN(C30,7)</f>
+        <f t="shared" si="2"/>
         <v>1001100</v>
       </c>
       <c r="C30">
@@ -1016,10 +992,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>DEC2BIN(C31,7)</f>
+        <f>DEC2BIN(77,7)</f>
         <v>1001101</v>
       </c>
       <c r="C31">
@@ -1028,10 +1004,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>DEC2BIN(C32,7)</f>
+        <f t="shared" si="2"/>
         <v>1001110</v>
       </c>
       <c r="C32">
@@ -1040,10 +1016,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>DEC2BIN(C33,7)</f>
+        <f t="shared" si="2"/>
         <v>1001111</v>
       </c>
       <c r="C33">
@@ -1052,10 +1028,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>DEC2BIN(C34,7)</f>
+        <f t="shared" si="2"/>
         <v>1010000</v>
       </c>
       <c r="C34">
@@ -1064,10 +1040,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>DEC2BIN(C35,7)</f>
+        <f t="shared" si="2"/>
         <v>1010001</v>
       </c>
       <c r="C35">
@@ -1076,10 +1052,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>DEC2BIN(C36,7)</f>
+        <f t="shared" si="2"/>
         <v>1010010</v>
       </c>
       <c r="C36">
@@ -1088,10 +1064,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f>DEC2BIN(C37,7)</f>
+        <f t="shared" si="2"/>
         <v>1010011</v>
       </c>
       <c r="C37">
@@ -1100,10 +1076,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f>DEC2BIN(C38,7)</f>
+        <f t="shared" si="2"/>
         <v>1010100</v>
       </c>
       <c r="C38">
@@ -1112,10 +1088,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f>DEC2BIN(C39,7)</f>
+        <f t="shared" si="2"/>
         <v>1010101</v>
       </c>
       <c r="C39">
@@ -1124,10 +1100,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>DEC2BIN(C40,7)</f>
+        <f t="shared" si="2"/>
         <v>1010110</v>
       </c>
       <c r="C40">
@@ -1136,10 +1112,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>DEC2BIN(C41,7)</f>
+        <f t="shared" si="2"/>
         <v>1010111</v>
       </c>
       <c r="C41">
@@ -1148,10 +1124,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>DEC2BIN(C42,7)</f>
+        <f t="shared" si="2"/>
         <v>1011000</v>
       </c>
       <c r="C42">
@@ -1160,10 +1136,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>DEC2BIN(C43,7)</f>
+        <f t="shared" si="2"/>
         <v>1011001</v>
       </c>
       <c r="C43">
@@ -1172,10 +1148,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f>DEC2BIN(C44,7)</f>
+        <f t="shared" si="2"/>
         <v>1011010</v>
       </c>
       <c r="C44">
@@ -1184,10 +1160,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>DEC2BIN(C45,7)</f>
+        <f t="shared" si="2"/>
         <v>1011011</v>
       </c>
       <c r="C45">
@@ -1196,10 +1172,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>DEC2BIN(C46,7)</f>
+        <f t="shared" si="2"/>
         <v>1011100</v>
       </c>
       <c r="C46">
@@ -1208,10 +1184,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>DEC2BIN(C47,7)</f>
+        <f t="shared" si="2"/>
         <v>1011101</v>
       </c>
       <c r="C47">
@@ -1220,10 +1196,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>DEC2BIN(C48,7)</f>
+        <f t="shared" si="2"/>
         <v>1011110</v>
       </c>
       <c r="C48">
@@ -1232,10 +1208,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>DEC2BIN(C49,7)</f>
+        <f t="shared" si="2"/>
         <v>1011111</v>
       </c>
       <c r="C49">
@@ -1244,10 +1220,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>DEC2BIN(C50,7)</f>
+        <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
       <c r="C50">
@@ -1256,10 +1232,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f>DEC2BIN(C51,7)</f>
+        <f t="shared" si="2"/>
         <v>1100001</v>
       </c>
       <c r="C51">
@@ -1268,10 +1244,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>DEC2BIN(C52,7)</f>
+        <f t="shared" si="2"/>
         <v>1100010</v>
       </c>
       <c r="C52">
@@ -1280,10 +1256,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>DEC2BIN(C53,7)</f>
+        <f t="shared" si="2"/>
         <v>1100011</v>
       </c>
       <c r="C53">
@@ -1292,10 +1268,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>DEC2BIN(C54,7)</f>
+        <f t="shared" si="2"/>
         <v>1100100</v>
       </c>
       <c r="C54">
@@ -1304,10 +1280,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>DEC2BIN(C55,7)</f>
+        <f t="shared" si="2"/>
         <v>1100101</v>
       </c>
       <c r="C55">
@@ -1316,10 +1292,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f>DEC2BIN(C56,7)</f>
+        <f t="shared" si="2"/>
         <v>1100110</v>
       </c>
       <c r="C56">
@@ -1328,10 +1304,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>DEC2BIN(C57,7)</f>
+        <f t="shared" si="2"/>
         <v>1100111</v>
       </c>
       <c r="C57">
@@ -1340,10 +1316,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f>DEC2BIN(C58,7)</f>
+        <f t="shared" si="2"/>
         <v>1101000</v>
       </c>
       <c r="C58">
@@ -1352,10 +1328,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>DEC2BIN(C59,7)</f>
+        <f t="shared" si="2"/>
         <v>1101001</v>
       </c>
       <c r="C59">
@@ -1364,10 +1340,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>DEC2BIN(C60,7)</f>
+        <f t="shared" si="2"/>
         <v>1101010</v>
       </c>
       <c r="C60">
@@ -1376,10 +1352,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f>DEC2BIN(C61,7)</f>
+        <f t="shared" ref="B61:B92" si="3">DEC2BIN(C61,7)</f>
         <v>1101011</v>
       </c>
       <c r="C61">
@@ -1388,10 +1364,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f>DEC2BIN(C62,7)</f>
+        <f t="shared" si="3"/>
         <v>1101100</v>
       </c>
       <c r="C62">
@@ -1399,11 +1375,11 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
+      <c r="A63" t="s">
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f>DEC2BIN(C63,7)</f>
+        <f t="shared" si="3"/>
         <v>1101101</v>
       </c>
       <c r="C63">
@@ -1412,10 +1388,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>DEC2BIN(C64,7)</f>
+        <f t="shared" si="3"/>
         <v>1101110</v>
       </c>
       <c r="C64">
@@ -1424,10 +1400,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>DEC2BIN(C65,7)</f>
+        <f t="shared" si="3"/>
         <v>1101111</v>
       </c>
       <c r="C65">
@@ -1436,10 +1412,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>DEC2BIN(C66,7)</f>
+        <f t="shared" si="3"/>
         <v>1110000</v>
       </c>
       <c r="C66">
@@ -1448,10 +1424,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>DEC2BIN(C67,7)</f>
+        <f t="shared" si="3"/>
         <v>1110001</v>
       </c>
       <c r="C67">
@@ -1460,10 +1436,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f>DEC2BIN(C68,7)</f>
+        <f t="shared" si="3"/>
         <v>1110010</v>
       </c>
       <c r="C68">
@@ -1472,10 +1448,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f>DEC2BIN(C69,7)</f>
+        <f t="shared" si="3"/>
         <v>1110011</v>
       </c>
       <c r="C69">
@@ -1484,10 +1460,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>DEC2BIN(C70,7)</f>
+        <f t="shared" si="3"/>
         <v>1110100</v>
       </c>
       <c r="C70">
@@ -1496,10 +1472,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f>DEC2BIN(C71,7)</f>
+        <f t="shared" si="3"/>
         <v>1110101</v>
       </c>
       <c r="C71">
@@ -1508,10 +1484,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f>DEC2BIN(C72,7)</f>
+        <f t="shared" si="3"/>
         <v>1110110</v>
       </c>
       <c r="C72">
@@ -1520,10 +1496,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f>DEC2BIN(C73,7)</f>
+        <f t="shared" si="3"/>
         <v>1110111</v>
       </c>
       <c r="C73">
@@ -1532,10 +1508,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f>DEC2BIN(C74,7)</f>
+        <f t="shared" si="3"/>
         <v>1111000</v>
       </c>
       <c r="C74">
@@ -1544,10 +1520,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f>DEC2BIN(C75,7)</f>
+        <f t="shared" si="3"/>
         <v>1111001</v>
       </c>
       <c r="C75">
@@ -1556,10 +1532,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f>DEC2BIN(C76,7)</f>
+        <f t="shared" si="3"/>
         <v>1111010</v>
       </c>
       <c r="C76">
@@ -1568,10 +1544,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f>DEC2BIN(C77,7)</f>
+        <f t="shared" si="3"/>
         <v>1111011</v>
       </c>
       <c r="C77">
@@ -1580,10 +1556,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f>DEC2BIN(C78,7)</f>
+        <f t="shared" si="3"/>
         <v>1111100</v>
       </c>
       <c r="C78">
@@ -1592,10 +1568,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>DEC2BIN(C79,7)</f>
+        <f t="shared" si="3"/>
         <v>1111101</v>
       </c>
       <c r="C79">
@@ -1603,11 +1579,11 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
+      <c r="A80" t="s">
+        <v>72</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f>DEC2BIN(C80,7)</f>
+        <f t="shared" si="3"/>
         <v>1111110</v>
       </c>
       <c r="C80">
@@ -1615,8 +1591,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
+      <c r="A81" t="s">
+        <v>73</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>DEC2BIN(C81,7)</f>
@@ -1628,19 +1604,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100150BA542C0A76049BDCF9D9B33733473" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ef38e991c303a9ac7df503bb4bfede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3359474e-1eb2-4efd-b06d-808658296785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5dc445deab565b1306aa7cfa3817311c" ns3:_="">
     <xsd:import namespace="3359474e-1eb2-4efd-b06d-808658296785"/>
@@ -1804,6 +1772,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1811,11 +1788,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD4BB07-9BEA-4759-970C-3EEA6C10E880}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A3CF7-13E1-4490-A100-3CC2BA236FEC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A3CF7-13E1-4490-A100-3CC2BA236FEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD4BB07-9BEA-4759-970C-3EEA6C10E880}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
